--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,416 +13034,416 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>5</v>
-      </c>
-      <c r="E248" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>6</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>19</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9966,366 +9966,366 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>15</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>5</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>15</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>6</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>15</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>7</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>15</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>8</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>15</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>9</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>15</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>10</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>15</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>11</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13034,416 +13034,416 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>19</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" s="2" t="inlineStr">
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" s="2" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>19</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>2</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" s="2" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>19</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>19</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>4</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>19</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>5</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>19</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
